--- a/Data/EC/NIT-9006915001.xlsx
+++ b/Data/EC/NIT-9006915001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF9C9D0F-0C82-4A4A-95F0-3B7F2479092B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AAF902-AC33-4732-B4BA-5C0D168662D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{CE6820CF-1A95-4E10-A934-F3602A301BB5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CF27ED2-D67D-4677-AB7B-6C8016971F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,46 +65,46 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9158235</t>
+  </si>
+  <si>
+    <t>FERNANDO JOSE JIMENEZ BARRETO</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
     <t>32907838</t>
   </si>
   <si>
     <t>BANIDIS DEL CARMEN BANQUET BLANCO</t>
   </si>
   <si>
-    <t>2408</t>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>45579779</t>
+  </si>
+  <si>
+    <t>GLADYS DEL SOCORRO LEGUIA ROBLES</t>
   </si>
   <si>
     <t>73121215</t>
   </si>
   <si>
     <t>YIDIO MORALES TORRES</t>
-  </si>
-  <si>
-    <t>9158235</t>
-  </si>
-  <si>
-    <t>FERNANDO JOSE JIMENEZ BARRETO</t>
-  </si>
-  <si>
-    <t>45579779</t>
-  </si>
-  <si>
-    <t>GLADYS DEL SOCORRO LEGUIA ROBLES</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D258D7BE-9BA2-3557-93B1-25B9D2296F3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E6706E-E58E-009A-48C3-7D2C35FB36B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460DCC1-82F9-41BD-B20F-C05977928D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99196B5C-C0DB-4EE5-BCBC-657D9DA6DCDA}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>50266</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1061,13 +1061,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1084,13 +1084,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1107,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1130,16 +1130,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>50266</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1153,13 +1153,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1176,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1199,10 +1199,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1222,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1245,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>17</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1268,16 +1268,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>50266</v>
       </c>
       <c r="G26" s="18">
         <v>1300000</v>
@@ -1291,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1314,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1337,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1360,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1383,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1406,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
         <v>50266</v>
@@ -1429,16 +1429,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>22</v>
-      </c>
       <c r="F33" s="18">
-        <v>50266</v>
+        <v>52000</v>
       </c>
       <c r="G33" s="18">
         <v>1300000</v>
@@ -1452,16 +1452,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F34" s="18">
-        <v>50266</v>
+        <v>52000</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1475,16 +1475,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F35" s="24">
-        <v>50266</v>
+        <v>52000</v>
       </c>
       <c r="G35" s="24">
         <v>1300000</v>

--- a/Data/EC/NIT-9006915001.xlsx
+++ b/Data/EC/NIT-9006915001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28AAF902-AC33-4732-B4BA-5C0D168662D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E54DD00D-A11B-4BA2-87AE-ACE20E05BEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0CF27ED2-D67D-4677-AB7B-6C8016971F9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1455F5BE-5A23-498E-A24D-8CCAEF863784}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,40 +71,40 @@
     <t>FERNANDO JOSE JIMENEZ BARRETO</t>
   </si>
   <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>32907838</t>
+  </si>
+  <si>
+    <t>BANIDIS DEL CARMEN BANQUET BLANCO</t>
+  </si>
+  <si>
+    <t>45579779</t>
+  </si>
+  <si>
+    <t>GLADYS DEL SOCORRO LEGUIA ROBLES</t>
+  </si>
+  <si>
+    <t>73121215</t>
+  </si>
+  <si>
+    <t>YIDIO MORALES TORRES</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
     <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>32907838</t>
-  </si>
-  <si>
-    <t>BANIDIS DEL CARMEN BANQUET BLANCO</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>45579779</t>
-  </si>
-  <si>
-    <t>GLADYS DEL SOCORRO LEGUIA ROBLES</t>
-  </si>
-  <si>
-    <t>73121215</t>
-  </si>
-  <si>
-    <t>YIDIO MORALES TORRES</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -203,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -216,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -418,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -462,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E6706E-E58E-009A-48C3-7D2C35FB36B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFE8729-A7FA-4BF3-B0CB-D50326A31C2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99196B5C-C0DB-4EE5-BCBC-657D9DA6DCDA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13EFD265-5413-417A-8A19-0DD177B117C5}">
   <dimension ref="B2:J41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>50266</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1061,13 +1061,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>52000</v>
@@ -1084,13 +1084,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1107,13 +1107,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1130,16 +1130,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
-        <v>50266</v>
+        <v>52000</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1153,13 +1153,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1176,13 +1176,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1199,10 +1199,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1222,13 +1222,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1245,13 +1245,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>16</v>
-      </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1268,16 +1268,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F26" s="18">
-        <v>50266</v>
+        <v>52000</v>
       </c>
       <c r="G26" s="18">
         <v>1300000</v>
@@ -1291,13 +1291,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>12</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1314,13 +1314,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1337,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1360,13 +1360,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1383,13 +1383,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1406,13 +1406,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F32" s="18">
         <v>50266</v>
@@ -1429,16 +1429,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F33" s="18">
-        <v>52000</v>
+        <v>50266</v>
       </c>
       <c r="G33" s="18">
         <v>1300000</v>
@@ -1452,16 +1452,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>50266</v>
       </c>
       <c r="G34" s="18">
         <v>1300000</v>
@@ -1475,16 +1475,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D35" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="22" t="s">
-        <v>14</v>
-      </c>
       <c r="F35" s="24">
-        <v>52000</v>
+        <v>50266</v>
       </c>
       <c r="G35" s="24">
         <v>1300000</v>
